--- a/subvencao/ESTOQUE_TOTAL.xlsx
+++ b/subvencao/ESTOQUE_TOTAL.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="14">
   <si>
     <t xml:space="preserve">SB9</t>
   </si>
@@ -235,7 +235,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="9.2"/>
   </cols>
@@ -1657,7 +1657,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
@@ -2361,7 +2361,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="T14" activeCellId="0" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2374,7 +2374,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
@@ -2407,9 +2407,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>18598422.1304228</v>
+        <v>18598472.7458633</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2420,13 +2420,13 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="n">
-        <v>14378332.2120949</v>
+        <v>14378332.212095</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>15280240.2963161</v>
+        <v>15280247.5270943</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>3370.93466679956</v>
+        <v>3370.93466679957</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>3462.5777859705</v>
@@ -2434,7 +2434,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="n">
-        <v>17696422.4031167</v>
+        <v>17696465.78778</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="T2" s="1" t="n">
@@ -2444,7 +2444,7 @@
         <v>12683253.5065803</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2543,7 +2543,7 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="false">SUM(A2:A6)</f>
-        <v>18598422.1304228</v>
+        <v>18598472.7458633</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">SUM(B2:B6)</f>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="J7" s="1" t="n">
         <f aca="false">SUM(J2:J6)</f>
-        <v>14378332.2120949</v>
+        <v>14378332.212095</v>
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">SUM(K2:K6)</f>
-        <v>15280240.2963161</v>
+        <v>15280247.5270943</v>
       </c>
       <c r="L7" s="1" t="n">
         <f aca="false">SUM(L2:L6)</f>
@@ -2595,16 +2595,16 @@
       </c>
       <c r="N7" s="2" t="n">
         <f aca="false">A7+J7+L7-K7-M7</f>
-        <v>17696422.4030824</v>
+        <v>17696465.7877448</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
         <f aca="false">SUM(P2:P6)</f>
-        <v>17696422.4031167</v>
+        <v>17696465.78778</v>
       </c>
       <c r="Q7" s="3" t="n">
         <f aca="false">P7-N7</f>
-        <v>3.42689454555511E-005</v>
+        <v>3.51741909980774E-005</v>
       </c>
       <c r="T7" s="1" t="n">
         <f aca="false">SUM(T2:T6)</f>
@@ -2706,17 +2706,17 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1"/>
       <c r="T14" s="1" t="n">
-        <v>3370.93466679956</v>
+        <v>3370.93466679957</v>
       </c>
       <c r="U14" s="1" t="n">
         <v>3462.5777859705</v>
       </c>
       <c r="V14" s="1" t="n">
         <f aca="false">T14-U14</f>
-        <v>-91.6431191709398</v>
+        <v>-91.6431191709298</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -2736,10 +2736,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2752,7 +2752,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>17696422.4031168</v>
+        <v>17696465.78778</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2801,18 +2801,18 @@
         <v>10206642.8261832</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>11581874.2124205</v>
+        <v>11581874.2124211</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>3907.70929627763</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>3370.93466679956</v>
+        <v>3370.93466679957</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="n">
-        <v>16320009.13914</v>
+        <v>16320052.5238032</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="T2" s="1" t="n">
@@ -2822,7 +2822,7 @@
         <v>16707379.1157218</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2849,7 +2849,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2876,7 +2876,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2927,7 +2927,7 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="false">SUM(A2:A6)</f>
-        <v>17696422.4031168</v>
+        <v>17696465.78778</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">SUM(B2:B6)</f>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">SUM(K2:K6)</f>
-        <v>11581874.2124205</v>
+        <v>11581874.2124211</v>
       </c>
       <c r="L7" s="1" t="n">
         <f aca="false">SUM(L2:L6)</f>
@@ -2979,16 +2979,16 @@
       </c>
       <c r="N7" s="2" t="n">
         <f aca="false">A7+J7+L7-K7-M7</f>
-        <v>16320009.141509</v>
+        <v>16320052.5261716</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
         <f aca="false">SUM(P2:P6)</f>
-        <v>16320009.13914</v>
+        <v>16320052.5238032</v>
       </c>
       <c r="Q7" s="3" t="n">
         <f aca="false">P7-N7</f>
-        <v>-0.00236897729337215</v>
+        <v>-0.00236837938427925</v>
       </c>
       <c r="T7" s="1" t="n">
         <f aca="false">SUM(T2:T6)</f>
@@ -3085,7 +3085,7 @@
         <v>8</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -3096,32 +3096,16 @@
         <v>3907.70929627763</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0</v>
+        <v>3370.93466679957</v>
       </c>
       <c r="V14" s="1" t="n">
         <f aca="false">T14-U14</f>
-        <v>3907.70929627763</v>
+        <v>536.77462947806</v>
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1" t="n">
-        <v>3370.93466679956</v>
-      </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3154,7 +3138,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
@@ -3869,7 +3853,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
@@ -4584,7 +4568,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
@@ -5305,7 +5289,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
@@ -6032,7 +6016,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
@@ -6765,9 +6749,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.2"/>
   </cols>
@@ -7467,9 +7451,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.2"/>
   </cols>
@@ -8160,9 +8144,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.2"/>
   </cols>
@@ -8845,9 +8829,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.2"/>
   </cols>
@@ -9528,9 +9512,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.2"/>
   </cols>
@@ -10207,21 +10191,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="2" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="9.2"/>
   </cols>
   <sheetData>
@@ -10962,7 +10946,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="9.2"/>
   </cols>

--- a/subvencao/ESTOQUE_TOTAL.xlsx
+++ b/subvencao/ESTOQUE_TOTAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="01-2019" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="14">
   <si>
     <t xml:space="preserve">SB9</t>
   </si>
@@ -2738,8 +2738,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3122,10 +3122,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3145,7 +3145,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.99"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -3164,10 +3164,16 @@
       <c r="P1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>15273935.7373641</v>
+        <v>16320052.5238032</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3178,34 +3184,32 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="n">
-        <v>12160008.4145612</v>
+        <v>13062447.0805109</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2428.2991424169</v>
+        <v>12173255.2765864</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>9.91636171222222</v>
+        <v>4074.18514224945</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>637.84</v>
+        <v>3907.70929627763</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="n">
-        <v>15995967.3163926</v>
+        <v>17209409.6082268</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="T2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>877.52</v>
-      </c>
+      <c r="T2" s="1" t="n">
+        <v>11678569.7233893</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>11678569.7233894</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3214,37 +3218,25 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="n">
-        <v>88339.982802069</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>100081.091967104</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1" t="n">
-        <v>3153.54794636723</v>
+        <v>3.89</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>3141.0733754895</v>
+        <v>5.08</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1" t="n">
-        <v>8074.2800590585</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="T3" s="1" t="n">
-        <v>3781.7486001952</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>1161.5491325434</v>
-      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>31309.55545787</v>
-      </c>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3253,37 +3245,25 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="n">
-        <v>1442.7564539991</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>43154.9081113498</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>910.72083417</v>
+        <v>11678569.7233893</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>128.8266458266</v>
+        <v>11678569.7233893</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="n">
-        <v>31584.741501646</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="T4" s="1" t="n">
-        <v>15516.5500652229</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>11240.9504578142</v>
-      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>468706.97201846</v>
-      </c>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3292,37 +3272,21 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="n">
-        <v>19420.4456576116</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>42369.9415763312</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>3781.7486001952</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>1161.5491325434</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="n">
-        <v>470687.681495549</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="T5" s="1" t="n">
-        <v>16830.2194300904</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>13092.3296207566</v>
-      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>36488.49997202</v>
-      </c>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3331,67 +3295,100 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="n">
-        <v>10656.0524048466</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>11403040.4571448</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>15516.5500652229</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>11240.9504578142</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="n">
-        <v>21102.3525554082</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="T6" s="1" t="n">
-        <v>32363.5167230091</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>11063293.2099918</v>
-      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>27143.53809233</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <f aca="false">SUM(A2:A6)</f>
+        <v>16320052.5238032</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">SUM(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">SUM(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">SUM(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">SUM(E2:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">SUM(G2:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">SUM(I2:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">SUM(J2:J6)</f>
+        <v>13062447.0805109</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">SUM(K2:K6)</f>
+        <v>12173255.2765864</v>
+      </c>
       <c r="L7" s="1" t="n">
-        <v>16830.2194300904</v>
+        <f aca="false">SUM(L2:L6)</f>
+        <v>11682647.7985316</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>13092.3296207566</v>
-      </c>
-      <c r="N7" s="1"/>
+        <f aca="false">SUM(M2:M6)</f>
+        <v>11682482.5126856</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <f aca="false">A7+J7+L7-K7-M7</f>
+        <v>17209409.6135737</v>
+      </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="1" t="n">
+        <f aca="false">SUM(P2:P6)</f>
+        <v>17209409.6082268</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <f aca="false">P7-N7</f>
+        <v>-0.00534687936306</v>
+      </c>
       <c r="T7" s="1" t="n">
-        <v>11032898.2444615</v>
+        <f aca="false">SUM(T2:T6)</f>
+        <v>11678569.7233893</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>12602.2400770873</v>
-      </c>
-      <c r="V7" s="1"/>
+        <f aca="false">SUM(U2:U6)</f>
+        <v>11678569.7233894</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <f aca="false">U7-T7</f>
+        <v>1.00582838058472E-007</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3403,22 +3400,22 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="n">
-        <v>32363.5167230091</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>11063293.2099918</v>
-      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3430,397 +3427,84 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="n">
-        <v>11032898.2444615</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>12602.2400770873</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="V9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="T13" s="1" t="n">
-        <f aca="false">SUM(T3:T12)</f>
-        <v>11101390.27928</v>
-      </c>
-      <c r="U13" s="1" t="n">
-        <f aca="false">SUM(U3:U12)</f>
-        <v>11101390.27928</v>
-      </c>
-      <c r="V13" s="1" t="n">
-        <f aca="false">U13-T13</f>
-        <v>-1.49011611938477E-008</v>
-      </c>
+      <c r="T13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="1" t="n">
+        <v>4074.18514224945</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>3907.70929627763</v>
+      </c>
       <c r="V14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <f aca="false">SUM(A2:A15)</f>
-        <v>15838461.8229048</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <f aca="false">SUM(B2:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">SUM(C2:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">SUM(D2:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">SUM(E2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">SUM(F2:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">SUM(G2:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">SUM(H2:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">SUM(I2:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">SUM(J2:J15)</f>
-        <v>12279867.6518797</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <f aca="false">SUM(K2:K15)</f>
-        <v>11591074.697942</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <f aca="false">SUM(L2:L15)</f>
-        <v>11105464.4644223</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">SUM(M2:M15)</f>
-        <v>11105298.0193013</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <f aca="false">A16+J16+L16-K16-M16</f>
-        <v>16527421.2219635</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="n">
-        <f aca="false">SUM(P2:P15)</f>
-        <v>16527416.3720043</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <f aca="false">P16-N16</f>
-        <v>-4.84995918720961</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="1"/>
-      <c r="T20" s="1" t="n">
-        <v>9.91636171222222</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>637.84</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="1"/>
-      <c r="T21" s="1" t="n">
-        <v>3153.54794636723</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>3141.0733754895</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="1"/>
-      <c r="T22" s="1" t="n">
-        <v>910.72083417</v>
-      </c>
-      <c r="U22" s="1" t="n">
-        <v>128.8266458266</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1"/>
-      <c r="T28" s="1" t="n">
-        <f aca="false">SUM(T20:T27)</f>
-        <v>4074.18514224945</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <f aca="false">SUM(U20:U27)</f>
-        <v>3907.7400213161</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="1" t="n">
-        <f aca="false">'12-2019'!U29</f>
-        <v>3357.23804148946</v>
-      </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-    </row>
+        <f aca="false">T14-U14</f>
+        <v>166.47584597182</v>
+      </c>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3837,13 +3521,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W28" activeCellId="0" sqref="W28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="2" style="0" width="4.79"/>
@@ -3855,12 +3539,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.99"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -3879,10 +3563,16 @@
       <c r="P1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>15995967.3163935</v>
+        <v>17209409.6082268</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3893,34 +3583,32 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="n">
-        <v>10169400.6563488</v>
+        <v>11038687.8664461</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1837.4232338567</v>
+        <v>9480504.5680004</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>117.1809585932</v>
+        <v>4172.24583532272</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>910.72083417</v>
+        <v>4074.18514224945</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="n">
-        <v>17499325.1307143</v>
+        <v>18767690.9633654</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="T2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>8074.28005906</v>
-      </c>
+      <c r="T2" s="1" t="n">
+        <v>7876970.09612451</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>7876970.0961245</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3929,37 +3617,25 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="n">
-        <v>374648.188805472</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>511052.129839741</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1" t="n">
-        <v>3145.04004255952</v>
+        <v>7876970.09612451</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>3153.0712857805</v>
+        <v>7876970.0961245</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1" t="n">
-        <v>3733.5971277626</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="T3" s="1" t="n">
-        <v>6470.2100489977</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>255.1942684895</v>
-      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>31584.74150167</v>
-      </c>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3968,37 +3644,21 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="n">
-        <v>1021.12973519</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>47.209332541</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>910.72083417</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>9.9163729187</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="n">
-        <v>31667.5225460997</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="T4" s="1" t="n">
-        <v>12113.3416412497</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>11279.1700579428</v>
-      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>470687.68149576</v>
-      </c>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4007,37 +3667,21 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="n">
-        <v>7837.4149898</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>10522.2263795649</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>6470.2100489977</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>255.1942684895</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="n">
-        <v>476431.857239467</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="T5" s="1" t="n">
-        <v>19393.0461635832</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>6985.894147434</v>
-      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>21102.35255539</v>
-      </c>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4046,67 +3690,100 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="n">
-        <v>9263.19000000001</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>8522032.19055549</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>12113.3416412497</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>11279.1700579428</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="n">
-        <v>22966.3950949184</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="T6" s="1" t="n">
-        <v>84143.6299565466</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>7517488.98720948</v>
-      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <f aca="false">SUM(A2:A6)</f>
+        <v>17209409.6082268</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">SUM(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">SUM(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">SUM(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">SUM(E2:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">SUM(G2:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">SUM(I2:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">SUM(J2:J6)</f>
+        <v>11038687.8664461</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">SUM(K2:K6)</f>
+        <v>9480504.5680004</v>
+      </c>
       <c r="L7" s="1" t="n">
-        <v>19393.0461635832</v>
+        <f aca="false">SUM(L2:L6)</f>
+        <v>7881142.34195983</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>6985.894147434</v>
-      </c>
-      <c r="N7" s="1"/>
+        <f aca="false">SUM(M2:M6)</f>
+        <v>7881044.28126675</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <f aca="false">A7+J7+L7-K7-M7</f>
+        <v>18767690.9673656</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
-        <v>10070.503170286</v>
-      </c>
-      <c r="Q7" s="1"/>
+        <f aca="false">SUM(P2:P6)</f>
+        <v>18767690.9633654</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <f aca="false">P7-N7</f>
+        <v>-0.00400018692016602</v>
+      </c>
       <c r="T7" s="1" t="n">
-        <v>7427776.41611004</v>
+        <f aca="false">SUM(T2:T6)</f>
+        <v>7876970.09612451</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>13887.3982370738</v>
-      </c>
-      <c r="V7" s="1"/>
+        <f aca="false">SUM(U2:U6)</f>
+        <v>7876970.0961245</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <f aca="false">U7-T7</f>
+        <v>0</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4118,22 +3795,22 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="n">
-        <v>84143.6299565466</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>7517488.98720948</v>
-      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4145,396 +3822,66 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="n">
-        <v>7427776.41611004</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>13887.3982370738</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="V9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="T13" s="1" t="n">
-        <f aca="false">SUM(T3:T12)</f>
-        <v>7549896.64392042</v>
-      </c>
-      <c r="U13" s="1" t="n">
-        <f aca="false">SUM(U3:U12)</f>
-        <v>7549896.64392042</v>
-      </c>
-      <c r="V13" s="1" t="n">
-        <f aca="false">U13-T13</f>
-        <v>0</v>
-      </c>
+      <c r="T13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="1" t="n">
+        <v>4172.24583532272</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>4074.18514224945</v>
+      </c>
       <c r="V14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <f aca="false">SUM(A2:A15)</f>
-        <v>16527416.3720054</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <f aca="false">SUM(B2:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">SUM(C2:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">SUM(D2:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">SUM(E2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">SUM(F2:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">SUM(G2:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">SUM(H2:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">SUM(I2:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">SUM(J2:J15)</f>
-        <v>10562170.5798793</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <f aca="false">SUM(K2:K15)</f>
-        <v>9045491.17934119</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <f aca="false">SUM(L2:L15)</f>
-        <v>7554069.58575574</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">SUM(M2:M15)</f>
-        <v>7553970.35241329</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <f aca="false">A16+J16+L16-K16-M16</f>
-        <v>18044195.0058859</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="n">
-        <f aca="false">SUM(P2:P15)</f>
-        <v>18044195.0058928</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <f aca="false">P16-N16</f>
-        <v>6.94021582603455E-006</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="1"/>
-      <c r="T20" s="1" t="n">
-        <v>117.1809585932</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>910.72083417</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="1"/>
-      <c r="T21" s="1" t="n">
-        <v>3145.04004255952</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>3153.0712857805</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="1"/>
-      <c r="T22" s="1" t="n">
-        <v>910.72083417</v>
-      </c>
-      <c r="U22" s="1" t="n">
-        <v>9.9163729187</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1"/>
-      <c r="T28" s="1" t="n">
-        <f aca="false">SUM(T20:T27)</f>
-        <v>4172.94183532272</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <f aca="false">SUM(U20:U27)</f>
-        <v>4073.7084928692</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="1" t="n">
-        <f aca="false">'12-2019'!U29</f>
-        <v>3357.23804148946</v>
-      </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+        <f aca="false">T14-U14</f>
+        <v>98.0606930732702</v>
+      </c>
+      <c r="W14" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/subvencao/ESTOQUE_TOTAL.xlsx
+++ b/subvencao/ESTOQUE_TOTAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="01-2019" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="14">
   <si>
     <t xml:space="preserve">SB9</t>
   </si>
@@ -3523,8 +3523,8 @@
   </sheetPr>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3583,10 +3583,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="n">
-        <v>11038687.8664461</v>
+        <v>11411178.0770232</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>9480504.5680004</v>
+        <v>9625441.83647296</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>4172.24583532272</v>
@@ -3597,14 +3597,14 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="n">
-        <v>18767690.9633654</v>
+        <v>18995243.90547</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="T2" s="1" t="n">
-        <v>7876970.09612451</v>
+        <v>8002378.69423457</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>7876970.0961245</v>
+        <v>8002378.69423458</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,10 +3620,10 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="n">
-        <v>7876970.09612451</v>
+        <v>8002378.69423457</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>7876970.0961245</v>
+        <v>8002378.69423458</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3742,40 +3742,40 @@
       </c>
       <c r="J7" s="1" t="n">
         <f aca="false">SUM(J2:J6)</f>
-        <v>11038687.8664461</v>
+        <v>11411178.0770232</v>
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">SUM(K2:K6)</f>
-        <v>9480504.5680004</v>
+        <v>9625441.83647296</v>
       </c>
       <c r="L7" s="1" t="n">
         <f aca="false">SUM(L2:L6)</f>
-        <v>7881142.34195983</v>
+        <v>8006550.94006989</v>
       </c>
       <c r="M7" s="1" t="n">
         <f aca="false">SUM(M2:M6)</f>
-        <v>7881044.28126675</v>
+        <v>8006452.87937683</v>
       </c>
       <c r="N7" s="2" t="n">
         <f aca="false">A7+J7+L7-K7-M7</f>
-        <v>18767690.9673656</v>
+        <v>18995243.9094701</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
         <f aca="false">SUM(P2:P6)</f>
-        <v>18767690.9633654</v>
+        <v>18995243.90547</v>
       </c>
       <c r="Q7" s="3" t="n">
         <f aca="false">P7-N7</f>
-        <v>-0.00400018692016602</v>
+        <v>-0.00400010496377945</v>
       </c>
       <c r="T7" s="1" t="n">
         <f aca="false">SUM(T2:T6)</f>
-        <v>7876970.09612451</v>
+        <v>8002378.69423457</v>
       </c>
       <c r="U7" s="1" t="n">
         <f aca="false">SUM(U2:U6)</f>
-        <v>7876970.0961245</v>
+        <v>8002378.69423458</v>
       </c>
       <c r="V7" s="1" t="n">
         <f aca="false">U7-T7</f>
@@ -3899,13 +3899,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="2" style="0" width="4.79"/>
@@ -3917,12 +3917,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.99"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -3941,10 +3941,16 @@
       <c r="P1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>17499325.1307146</v>
+        <v>18995243.90547</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3955,34 +3961,32 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="n">
-        <v>8632767.12346153</v>
+        <v>9410558.4973114</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1851.7576635456</v>
+        <v>11351373.0903347</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>294.412397212078</v>
+        <v>4363.37051816871</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>910.72083417</v>
+        <v>4172.24583532272</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="n">
-        <v>15567797.7525753</v>
+        <v>17054256.3093449</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="T2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>3733.59712777</v>
-      </c>
+      <c r="T2" s="1" t="n">
+        <v>10843664.7112867</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>10843664.7112867</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3991,37 +3995,25 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="n">
-        <v>134448.02</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>128663.569768742</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1" t="n">
-        <v>3153.35128678663</v>
+        <v>1.05</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>3168.0626371612</v>
+        <v>365.18</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1" t="n">
-        <v>109191.548767515</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="T3" s="1" t="n">
-        <v>6470.2100489977</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>255.1942684895</v>
-      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>31667.52254612</v>
-      </c>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4030,37 +4022,25 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="n">
-        <v>496.2236989711</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>17611.3211642084</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>915.60683417</v>
+        <v>10843664.7112867</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>116.2762775513</v>
+        <v>10843664.7112867</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="n">
-        <v>31839.39656226</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="T4" s="1" t="n">
-        <v>12113.3416412497</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>11279.1700579428</v>
-      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>476431.85723953</v>
-      </c>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4069,37 +4049,21 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="n">
-        <v>35085.1906727699</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>1428.7315945605</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>5984.3964907318</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>4039.2286549121</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="n">
-        <v>477279.72804253</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="T5" s="1" t="n">
-        <v>19393.0461635832</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>6985.894147434</v>
-      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>22966.39509493</v>
-      </c>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4108,69 +4072,100 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="n">
-        <v>12828.0966529801</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>29354.8667836395</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>21094.6820711853</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>14709.709327442</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="n">
-        <v>9530.775988687</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="T6" s="1" t="n">
-        <v>84143.6299565466</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>7517488.98720948</v>
-      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>10070.50317031</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+        <f aca="false">SUM(A2:A6)</f>
+        <v>18995243.90547</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">SUM(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">SUM(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">SUM(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">SUM(E2:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">SUM(G2:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">SUM(I2:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">SUM(J2:J6)</f>
+        <v>9410558.4973114</v>
+      </c>
       <c r="K7" s="1" t="n">
-        <v>10485097.4657202</v>
+        <f aca="false">SUM(K2:K6)</f>
+        <v>11351373.0903347</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>3250.7918314923</v>
+        <f aca="false">SUM(L2:L6)</f>
+        <v>10848029.1318049</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>26719.037964826</v>
-      </c>
-      <c r="N7" s="1"/>
+        <f aca="false">SUM(M2:M6)</f>
+        <v>10848202.137122</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <f aca="false">A7+J7+L7-K7-M7</f>
+        <v>17054256.3071295</v>
+      </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="1" t="n">
+        <f aca="false">SUM(P2:P6)</f>
+        <v>17054256.3093449</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <f aca="false">P7-N7</f>
+        <v>0.00221535190939903</v>
+      </c>
       <c r="T7" s="1" t="n">
-        <v>7427776.41611004</v>
+        <f aca="false">SUM(T2:T6)</f>
+        <v>10843664.7112867</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>13887.3982370738</v>
-      </c>
-      <c r="V7" s="1"/>
+        <f aca="false">SUM(U2:U6)</f>
+        <v>10843664.7112867</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <f aca="false">U7-T7</f>
+        <v>0</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4182,22 +4177,22 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="n">
-        <v>126055.885907218</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>3.0314313615</v>
-      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4209,400 +4204,66 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="n">
-        <v>10028163.6953963</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>10108297.8713635</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="V9" s="0" t="n">
+        <v>365.18</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="n">
-        <v>1486.8952275282</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>32267.468182435</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="T13" s="1" t="n">
-        <f aca="false">SUM(T3:T12)</f>
-        <v>7549896.64392042</v>
-      </c>
-      <c r="U13" s="1" t="n">
-        <f aca="false">SUM(U3:U12)</f>
-        <v>7549896.64392042</v>
-      </c>
-      <c r="V13" s="1" t="n">
-        <f aca="false">U13-T13</f>
-        <v>0</v>
-      </c>
+      <c r="T13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="1" t="n">
+        <v>4363.37051816871</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>4172.24583532272</v>
+      </c>
       <c r="V14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <f aca="false">SUM(A2:A15)</f>
-        <v>18044195.0058933</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <f aca="false">SUM(B2:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">SUM(C2:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">SUM(D2:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">SUM(E2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">SUM(F2:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">SUM(G2:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">SUM(H2:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">SUM(I2:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">SUM(J2:J15)</f>
-        <v>8815624.65448625</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <f aca="false">SUM(K2:K15)</f>
-        <v>10664007.7126949</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <f aca="false">SUM(L2:L15)</f>
-        <v>10190399.7174426</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">SUM(M2:M15)</f>
-        <v>10190231.4066734</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <f aca="false">A16+J16+L16-K16-M16</f>
-        <v>16195980.2584539</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="n">
-        <f aca="false">SUM(P2:P15)</f>
-        <v>16195639.2019363</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <f aca="false">P16-N16</f>
-        <v>-341.056517589837</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="1"/>
-      <c r="T20" s="1" t="n">
-        <v>117.1809585932</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>910.72083417</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="1"/>
-      <c r="T21" s="1" t="n">
-        <v>3145.04004255952</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>3153.0712857805</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="1"/>
-      <c r="T22" s="1" t="n">
-        <v>910.72083417</v>
-      </c>
-      <c r="U22" s="1" t="n">
-        <v>9.9163729187</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1"/>
-      <c r="T28" s="1" t="n">
-        <f aca="false">SUM(T20:T27)</f>
-        <v>4172.94183532272</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <f aca="false">SUM(U20:U27)</f>
-        <v>4073.7084928692</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="1" t="n">
-        <f aca="false">'12-2019'!U29</f>
-        <v>3357.23804148946</v>
-      </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+        <f aca="false">T14-U14</f>
+        <v>191.12468284599</v>
+      </c>
+      <c r="W14" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/subvencao/ESTOQUE_TOTAL.xlsx
+++ b/subvencao/ESTOQUE_TOTAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="01-2019" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="14">
   <si>
     <t xml:space="preserve">SB9</t>
   </si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">MOV 800</t>
   </si>
   <si>
-    <t xml:space="preserve">* saldo inicial do produto 036218 lançado errado na filial 13 nf de estorno 366</t>
+    <t xml:space="preserve">MOV 400</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,13 +122,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -180,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,10 +187,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3901,7 +3890,7 @@
   </sheetPr>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -4281,13 +4270,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T17" activeCellId="0" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="2" style="0" width="4.79"/>
@@ -4299,12 +4288,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.99"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -4323,10 +4312,16 @@
       <c r="P1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>15570119.1459377</v>
+        <v>17054256.3093449</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4337,34 +4332,32 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="n">
-        <v>9490652.36371955</v>
+        <v>10311489.7119815</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>12545.8472108491</v>
+        <v>13165428.2116574</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>442.215987073766</v>
+        <v>14464.3994587049</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>914.90083417</v>
+        <v>4363.37051816871</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="n">
-        <v>13003842.7565731</v>
+        <v>14210419.5468045</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="T2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>109191.54876751</v>
-      </c>
+      <c r="T2" s="1" t="n">
+        <v>11983807.196312</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>11983807.196312</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4373,37 +4366,25 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="n">
-        <v>141603.94</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>1299.6188052878</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1" t="n">
-        <v>3170.51263746116</v>
+        <v>0.71</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>3162.1127371045</v>
+        <v>11983807.196312</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1" t="n">
-        <v>15350.41411065</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="T3" s="1" t="n">
-        <v>4380.0377115694</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>940.1012870499</v>
-      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>31839.39656228</v>
-      </c>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4412,37 +4393,23 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="n">
-        <v>9743.2171172531</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>49769.195954348</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>910.72083417</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>295.177023435</v>
-      </c>
+        <v>11983807.196312</v>
+      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="n">
-        <v>32990.37383892</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="T4" s="1" t="n">
-        <v>109234.014194251</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>92148.7547055523</v>
-      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>477279.72804257</v>
-      </c>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4451,37 +4418,21 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="n">
-        <v>11281.9350471906</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>151945.282981695</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>4380.0377115694</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>940.1012870499</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="n">
-        <v>478570.259753579</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="T5" s="1" t="n">
-        <v>4409.6471326872</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>104846.77158811</v>
-      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>9530.77598868</v>
-      </c>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4490,69 +4441,100 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="n">
-        <v>22709.8272387294</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>6431.7695725188</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>109234.014194251</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>92148.7547055523</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="n">
-        <v>18863.53203145</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="T6" s="1" t="n">
-        <v>21408.1056992644</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>97.1083137346</v>
-      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <f aca="false">SUM(A2:A6)</f>
+        <v>17054256.3093449</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">SUM(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">SUM(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">SUM(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">SUM(E2:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">SUM(G2:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">SUM(I2:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">SUM(J2:J6)</f>
+        <v>10311489.7119815</v>
+      </c>
       <c r="K7" s="1" t="n">
-        <v>12112435.0386542</v>
+        <f aca="false">SUM(K2:K6)</f>
+        <v>13165428.2116574</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>4409.6471326872</v>
+        <f aca="false">SUM(L2:L6)</f>
+        <v>11998272.3057707</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>104846.77158811</v>
-      </c>
-      <c r="N7" s="1"/>
+        <f aca="false">SUM(M2:M6)</f>
+        <v>11988170.5668302</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <f aca="false">A7+J7+L7-K7-M7</f>
+        <v>14210419.5486095</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
-        <v>-9939.5575</v>
-      </c>
-      <c r="Q7" s="1"/>
+        <f aca="false">SUM(P2:P6)</f>
+        <v>14210419.5468045</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <f aca="false">P7-N7</f>
+        <v>-0.00180503726005554</v>
+      </c>
       <c r="T7" s="1" t="n">
-        <v>11104969.2994307</v>
+        <f aca="false">SUM(T2:T6)</f>
+        <v>11983807.196312</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>11046552.482404</v>
-      </c>
-      <c r="V7" s="1"/>
+        <f aca="false">SUM(U2:U6)</f>
+        <v>11983807.196312</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <f aca="false">U7-T7</f>
+        <v>0</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4564,26 +4546,22 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="n">
-        <v>21408.1056992644</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>97.1083137346</v>
-      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="T8" s="1" t="n">
-        <v>2319.8753943254</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>2135.7612643945</v>
-      </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4595,402 +4573,70 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="n">
-        <v>11104969.2994307</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>11046552.482404</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="V9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="n">
-        <v>2319.8753943254</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>2135.7612643945</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="V10" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="T13" s="1" t="n">
-        <f aca="false">SUM(T3:T12)</f>
-        <v>11246720.9795628</v>
-      </c>
-      <c r="U13" s="1" t="n">
-        <f aca="false">SUM(U3:U12)</f>
-        <v>11246720.9795628</v>
-      </c>
-      <c r="V13" s="1" t="n">
-        <f aca="false">U13-T13</f>
-        <v>4.2840838432312E-008</v>
-      </c>
+      <c r="T13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="1" t="n">
+        <v>14464.3994587049</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>4363.37051816871</v>
+      </c>
       <c r="V14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <f aca="false">SUM(A2:A15)</f>
-        <v>16197960.5952987</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <f aca="false">SUM(B2:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">SUM(C2:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">SUM(D2:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">SUM(E2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">SUM(F2:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">SUM(G2:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">SUM(H2:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">SUM(I2:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">SUM(J2:J15)</f>
-        <v>9675991.28312272</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <f aca="false">SUM(K2:K15)</f>
-        <v>12334426.7531789</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <f aca="false">SUM(L2:L15)</f>
-        <v>11251244.4290215</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">SUM(M2:M15)</f>
-        <v>11251093.1701576</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <f aca="false">A16+J16+L16-K16-M16</f>
-        <v>13539676.3841065</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="n">
-        <f aca="false">SUM(P2:P15)</f>
-        <v>13539677.7788077</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <f aca="false">P16-N16</f>
-        <v>1.39470118843019</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="1"/>
-      <c r="T20" s="1" t="n">
-        <v>442.215987073766</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>914.90083417</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="1"/>
-      <c r="T21" s="1" t="n">
-        <v>3170.51263746116</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>3162.1127371045</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="1"/>
-      <c r="T22" s="1" t="n">
-        <v>910.72083417</v>
-      </c>
-      <c r="U22" s="1" t="n">
-        <v>295.177023435</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1"/>
-      <c r="T28" s="1" t="n">
-        <f aca="false">SUM(T20:T27)</f>
-        <v>4523.44945870493</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <f aca="false">SUM(U20:U27)</f>
-        <v>4372.1905947095</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="1" t="n">
-        <f aca="false">'12-2019'!U29</f>
-        <v>3357.23804148946</v>
-      </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+        <f aca="false">T14-U14</f>
+        <v>10101.0289405362</v>
+      </c>
+      <c r="W14" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/subvencao/ESTOQUE_TOTAL.xlsx
+++ b/subvencao/ESTOQUE_TOTAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="01-2019" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="15">
   <si>
     <t xml:space="preserve">SB9</t>
   </si>
@@ -80,14 +80,18 @@
   <si>
     <t xml:space="preserve">MOV 400</t>
   </si>
+  <si>
+    <t xml:space="preserve">MOV 900</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -173,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,6 +191,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4272,7 +4280,7 @@
   </sheetPr>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T17" activeCellId="0" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -4654,13 +4662,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="2" style="0" width="4.79"/>
@@ -4672,12 +4680,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.99"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -4696,10 +4704,16 @@
       <c r="P1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>13003842.7565731</v>
+        <v>14210419.5468045</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4710,34 +4724,32 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="n">
-        <v>16042496.4879271</v>
+        <v>16464477.8773384</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>7803.7557205431</v>
+        <v>14935136.2441314</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>79.4296527450215</v>
+        <v>1202.91213664693</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>910.92083417</v>
+        <v>14464.3794338674</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="n">
-        <v>14785222.8262925</v>
+        <v>15725484.4665654</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="T2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>15350.41411065</v>
-      </c>
+      <c r="T2" s="1" t="n">
+        <v>12925417.9881519</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>12925417.9881519</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4746,37 +4758,25 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="n">
-        <v>125063.435303248</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>52963.442665449</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1" t="n">
-        <v>212.761649731904</v>
+        <v>34.12</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>3166.2311632373</v>
+        <v>1047.11</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1" t="n">
-        <v>30011.5712701278</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="T3" s="1" t="n">
-        <v>23723.2988970778</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>43524.4664568664</v>
-      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>32990.37383892</v>
-      </c>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4785,37 +4785,25 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="n">
-        <v>814.0199001302</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>128103.376809157</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>910.92083417</v>
+        <v>12925417.9881519</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>449.7936841906</v>
+        <v>2.26</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="n">
-        <v>28166.3246210581</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="T4" s="1" t="n">
-        <v>59619.1994508068</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>26622.3171425268</v>
-      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>478570.259753579</v>
-      </c>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4824,37 +4812,23 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="n">
-        <v>107112.777789452</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>14288755.890837</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>23723.2988970778</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="n">
-        <v>963.54</v>
+        <v>12925417.9881519</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="n">
-        <v>1326.55123876999</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="T5" s="1" t="n">
-        <v>25215.168863133</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>4034.56430434239</v>
-      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>18863.53203145</v>
-      </c>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4863,71 +4837,100 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="n">
-        <v>29500.6933252322</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>34708.3612386275</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>59619.1994508068</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>43524.4664568664</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="n">
-        <v>455244.992543054</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="T6" s="1" t="n">
-        <v>22278.8286649654</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>7110.88822661219</v>
-      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>-9939.5575</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+        <f aca="false">SUM(A2:A6)</f>
+        <v>14210419.5468045</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">SUM(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">SUM(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">SUM(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">SUM(E2:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">SUM(G2:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">SUM(I2:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">SUM(J2:J6)</f>
+        <v>16464477.8773384</v>
+      </c>
       <c r="K7" s="1" t="n">
-        <v>1617.3821423931</v>
+        <f aca="false">SUM(K2:K6)</f>
+        <v>14935136.2441314</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>25215.168863133</v>
+        <f aca="false">SUM(L2:L6)</f>
+        <v>12926655.0202885</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>26622.3171425268</v>
-      </c>
-      <c r="N7" s="1"/>
+        <f aca="false">SUM(M2:M6)</f>
+        <v>12940931.7375858</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <f aca="false">A7+J7+L7-K7-M7</f>
+        <v>15725484.4627143</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
-        <v>26453.3397609693</v>
-      </c>
-      <c r="Q7" s="1"/>
+        <f aca="false">SUM(P2:P6)</f>
+        <v>15725484.4665654</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <f aca="false">P7-N7</f>
+        <v>0.00385112129151821</v>
+      </c>
       <c r="T7" s="1" t="n">
-        <v>1326.55123876999</v>
+        <f aca="false">SUM(T2:T6)</f>
+        <v>12925417.9881519</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>12392480.4812725</v>
-      </c>
-      <c r="V7" s="1"/>
+        <f aca="false">SUM(U2:U6)</f>
+        <v>12925417.9881519</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <f aca="false">U7-T7</f>
+        <v>0</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4939,26 +4942,22 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="n">
-        <v>22278.8286649654</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>4034.56430434239</v>
-      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="T8" s="1" t="n">
-        <v>12422310.0606146</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>87162.0552224405</v>
-      </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4970,406 +4969,74 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="n">
-        <v>1326.55123876999</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>7110.88822661219</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="T9" s="1" t="n">
-        <v>6461.6648959706</v>
-      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="V9" s="0" t="n">
+        <v>1047.11</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="n">
-        <v>12422310.0606146</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>12392480.4812725</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="V10" s="0" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="n">
-        <v>6461.6648959706</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>87162.0552224405</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="V11" s="1" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="T13" s="1" t="n">
-        <f aca="false">SUM(T3:T12)</f>
-        <v>12560934.7726253</v>
-      </c>
-      <c r="U13" s="1" t="n">
-        <f aca="false">SUM(U3:U12)</f>
-        <v>12560934.7726253</v>
-      </c>
-      <c r="V13" s="1" t="n">
-        <f aca="false">U13-T13</f>
-        <v>-3.53902578353882E-008</v>
-      </c>
+      <c r="T13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="1" t="n">
+        <v>1202.91213664693</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>14464.3994587049</v>
+      </c>
       <c r="V14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="n">
-        <v>963.54</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <f aca="false">SUM(A2:A15)</f>
-        <v>13539677.7788077</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <f aca="false">SUM(B2:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">SUM(C2:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">SUM(D2:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">SUM(E2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">SUM(F2:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">SUM(G2:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">SUM(H2:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">SUM(I2:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">SUM(J2:J15)</f>
-        <v>16304987.4142452</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <f aca="false">SUM(K2:K15)</f>
-        <v>14513952.2094132</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <f aca="false">SUM(L2:L15)</f>
-        <v>12562137.884762</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">SUM(M2:M15)</f>
-        <v>12566425.2583069</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <f aca="false">A16+J16+L16-K16-M16</f>
-        <v>15326425.6100948</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="n">
-        <f aca="false">SUM(P2:P15)</f>
-        <v>15326425.6057265</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <f aca="false">P16-N16</f>
-        <v>-0.00436829403042793</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="1"/>
-      <c r="T20" s="1" t="n">
-        <v>79.4296527450215</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>910.92083417</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="1"/>
-      <c r="T21" s="1" t="n">
-        <v>212.761649731904</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>3166.2311632373</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="1"/>
-      <c r="T22" s="1" t="n">
-        <v>910.92083417</v>
-      </c>
-      <c r="U22" s="1" t="n">
-        <v>449.7936841906</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1"/>
-      <c r="T28" s="1" t="n">
-        <f aca="false">SUM(T20:T27)</f>
-        <v>1203.11213664693</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <f aca="false">SUM(U20:U27)</f>
-        <v>4526.9456815979</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="1" t="n">
-        <f aca="false">'12-2019'!U29</f>
-        <v>3357.23804148946</v>
-      </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+        <f aca="false">T14-U14</f>
+        <v>-13261.487322058</v>
+      </c>
+      <c r="W14" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/subvencao/ESTOQUE_TOTAL.xlsx
+++ b/subvencao/ESTOQUE_TOTAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="01-2019" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,6 +26,7 @@
     <sheet name="05-2020" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="06-2020" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="07-2020" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="08-2020" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="17">
   <si>
     <t xml:space="preserve">SB9</t>
   </si>
@@ -83,6 +84,12 @@
   <si>
     <t xml:space="preserve">MOV 900</t>
   </si>
+  <si>
+    <t xml:space="preserve">SB9 INICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB9 FINAL</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +100,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +125,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -132,13 +147,63 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF413D"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00AAAD"/>
+        <bgColor rgb="FF00A65D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89C765"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF9AE"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A65D"/>
+        <bgColor rgb="FF00AAAD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,7 +215,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,8 +241,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,27 +254,132 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEF413D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF00AAAD"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFF9AE"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF89C765"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFAA61A"/>
+      <rgbColor rgb="FFEF413D"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A65D"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -770,7 +943,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>-1941.94563239068</v>
+        <v>-1941.9456323944</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1465,7 +1638,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>-31.7700149901211</v>
+        <v>-31.7700149938464</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2182,7 +2355,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>-0.00424220412969589</v>
+        <v>-0.00424220785498619</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -4664,7 +4837,7 @@
   </sheetPr>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -5039,6 +5212,298 @@
       <c r="W14" s="1"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>14210419.5468045</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>16464477.8773384</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>14935136.2441314</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1202.91213664693</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>14464.3794338674</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>15725484.4665654</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="n">
+        <v>12925417.9881519</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>12925417.9881519</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1047.11</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>12925417.9881519</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="n">
+        <v>12925417.9881519</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <f aca="false">SUM(A2:A6)</f>
+        <v>14210419.5468045</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <f aca="false">SUM(B2:B6)</f>
+        <v>16464477.8773384</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <f aca="false">SUM(C2:C6)</f>
+        <v>14935136.2441314</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <f aca="false">SUM(D2:D6)</f>
+        <v>12926655.0202885</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <f aca="false">SUM(E2:E6)</f>
+        <v>12940931.7375858</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">SUM(J2:J6)</f>
+        <v>12925417.9881519</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">SUM(K2:K6)</f>
+        <v>12925417.9881519</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">K7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="0" t="n">
+        <v>1047.11</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="0" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="10" t="n">
+        <f aca="false">A7+B7+D7-C7-E7</f>
+        <v>15725484.4627143</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <f aca="false">SUM(F2:F6)</f>
+        <v>15725484.4665654</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <f aca="false">C13-B13</f>
+        <v>0.00385112129151821</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1"/>
+      <c r="J14" s="1" t="n">
+        <v>1202.91213664693</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>14464.3994587049</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <f aca="false">J14-K14</f>
+        <v>-13261.487322058</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" priority="2" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>-0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5596,7 +6061,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>-0.00174287520349026</v>
+        <v>-0.001742884516716</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -5720,7 +6185,7 @@
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T28" s="1" t="n">
         <f aca="false">SUM(T20:T27)</f>
-        <v>1372.54878827551</v>
+        <v>1372.54878827552</v>
       </c>
       <c r="U28" s="1" t="n">
         <f aca="false">SUM(U20:U27)</f>
@@ -6167,7 +6632,7 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1" t="n">
         <f aca="false">SUM(T3:T12)</f>
-        <v>12501075.3988174</v>
+        <v>12501075.3988175</v>
       </c>
       <c r="U13" s="1" t="n">
         <f aca="false">SUM(U3:U12)</f>
@@ -6291,7 +6756,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>319.053165273741</v>
+        <v>319.053165279329</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -6976,7 +7441,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>38.5418184995651</v>
+        <v>38.5418184977025</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -7796,7 +8261,7 @@
       </c>
       <c r="U29" s="1" t="n">
         <f aca="false">'04-2019'!T28-U28</f>
-        <v>94.6081512746023</v>
+        <v>94.6081512745986</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -8230,7 +8695,7 @@
       </c>
       <c r="V13" s="1" t="n">
         <f aca="false">U13-T13</f>
-        <v>-8.38190317153931E-009</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -8346,7 +8811,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>120.002131290734</v>
+        <v>120.002131296322</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -9066,7 +9531,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>614.275429606438</v>
+        <v>614.2754296083</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -10347,7 +10812,7 @@
       </c>
       <c r="V13" s="1" t="n">
         <f aca="false">U13-T13</f>
-        <v>22326.9271882363</v>
+        <v>22326.9271882344</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -10456,7 +10921,7 @@
       </c>
       <c r="N16" s="2" t="n">
         <f aca="false">A16+J16+L16-K16-M16</f>
-        <v>16411884.367082</v>
+        <v>16411884.3670819</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="n">
@@ -10465,7 +10930,7 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">P16-N16</f>
-        <v>1.18669122457504E-005</v>
+        <v>1.18762254714966E-005</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
